--- a/Tool 2/core/train/train_schedule.xlsx
+++ b/Tool 2/core/train/train_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iparm\Desktop\Traffic_Evolution\data\train\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iparm\Desktop\ORCHESTRA Tools\Tool 3\core\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6AC83-0ABF-4A27-BAC0-6BC52AE908B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA7453-688D-4A97-B6DB-51793300739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15840" yWindow="1215" windowWidth="14475" windowHeight="12885" xr2:uid="{9039E198-4E99-4D2C-AC08-C0684BA4AC05}"/>
+    <workbookView xWindow="-28800" yWindow="150" windowWidth="14475" windowHeight="12885" xr2:uid="{9039E198-4E99-4D2C-AC08-C0684BA4AC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>314610267</v>
+        <v>5110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -553,12 +553,12 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>28168</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>154780178</v>
+        <v>1529</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -570,12 +570,12 @@
         <v>31</v>
       </c>
       <c r="E3" s="1">
-        <v>6499</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>78420139</v>
+        <v>982</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -587,12 +587,12 @@
         <v>30</v>
       </c>
       <c r="E4" s="1">
-        <v>4912</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>599920092</v>
+        <v>3932</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -604,12 +604,12 @@
         <v>29</v>
       </c>
       <c r="E5" s="1">
-        <v>47496</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8551584642</v>
+        <v>32300</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -621,12 +621,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>60959</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1128370186</v>
+        <v>14059</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -638,12 +638,12 @@
         <v>28</v>
       </c>
       <c r="E7" s="1">
-        <v>59253</v>
+        <v>14059</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3811564248</v>
+        <v>3814</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -655,12 +655,12 @@
         <v>27</v>
       </c>
       <c r="E8" s="1">
-        <v>66380</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6411754149</v>
+        <v>3813</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -672,12 +672,12 @@
         <v>26</v>
       </c>
       <c r="E9" s="1">
-        <v>32154</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21663203</v>
+        <v>981</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -689,12 +689,12 @@
         <v>33</v>
       </c>
       <c r="E10" s="1">
-        <v>1078</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>382628843</v>
+        <v>3809</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -706,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>4735</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
